--- a/data/validation/validation-case.xlsx
+++ b/data/validation/validation-case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_workspace\AutomationTest\data\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3DD36D-B150-4850-AE19-B4C960440B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E3F60-78AE-4C14-BA00-FB27FBDED3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6FE98884-D733-4B65-B993-BEF827E7D49C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="case_manage" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">case_manage!$A$1:$T$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">case_manage!$A$1:$U$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="157">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5062,12 +5062,81 @@
   <si>
     <t>33</t>
   </si>
+  <si>
+    <t>expact_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预计包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>预计仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>预计仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5127,6 +5196,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5174,7 +5249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5228,6 +5303,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6044,10 +6125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015523A-5FCB-4CD3-9321-5094A3B5F6B9}">
-  <dimension ref="A1:T268"/>
+  <dimension ref="A1:U268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6062,20 +6143,21 @@
     <col min="8" max="8" width="16.625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21.75" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="36.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="21.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -6133,11 +6215,14 @@
       <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -6174,11 +6259,14 @@
       <c r="S2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>121</v>
       </c>
@@ -6215,11 +6303,14 @@
       <c r="S3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>122</v>
       </c>
@@ -6256,11 +6347,14 @@
       <c r="S4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
@@ -6297,11 +6391,14 @@
       <c r="S5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>124</v>
       </c>
@@ -6338,11 +6435,14 @@
       <c r="S6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>125</v>
       </c>
@@ -6379,11 +6479,14 @@
       <c r="S7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>126</v>
       </c>
@@ -6420,11 +6523,14 @@
       <c r="S8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
@@ -6461,11 +6567,14 @@
       <c r="S9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>128</v>
       </c>
@@ -6502,11 +6611,14 @@
       <c r="S10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>129</v>
       </c>
@@ -6543,11 +6655,14 @@
       <c r="S11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
@@ -6584,11 +6699,14 @@
       <c r="S12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>131</v>
       </c>
@@ -6625,11 +6743,14 @@
       <c r="S13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>132</v>
       </c>
@@ -6666,11 +6787,14 @@
       <c r="S14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>133</v>
       </c>
@@ -6707,11 +6831,14 @@
       <c r="S15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>134</v>
       </c>
@@ -6748,11 +6875,14 @@
       <c r="S16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>135</v>
       </c>
@@ -6789,11 +6919,14 @@
       <c r="S17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>136</v>
       </c>
@@ -6830,11 +6963,14 @@
       <c r="S18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>137</v>
       </c>
@@ -6871,11 +7007,14 @@
       <c r="S19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>138</v>
       </c>
@@ -6912,11 +7051,14 @@
       <c r="S20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>139</v>
       </c>
@@ -6953,11 +7095,14 @@
       <c r="S21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>140</v>
       </c>
@@ -6994,11 +7139,14 @@
       <c r="S22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>141</v>
       </c>
@@ -7035,11 +7183,14 @@
       <c r="S23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>142</v>
       </c>
@@ -7076,11 +7227,14 @@
       <c r="S24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>143</v>
       </c>
@@ -7117,11 +7271,14 @@
       <c r="S25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>144</v>
       </c>
@@ -7158,11 +7315,14 @@
       <c r="S26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>145</v>
       </c>
@@ -7199,11 +7359,14 @@
       <c r="S27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>146</v>
       </c>
@@ -7240,11 +7403,14 @@
       <c r="S28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>147</v>
       </c>
@@ -7281,11 +7447,14 @@
       <c r="S29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>148</v>
       </c>
@@ -7322,11 +7491,14 @@
       <c r="S30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>149</v>
       </c>
@@ -7363,11 +7535,14 @@
       <c r="S31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>150</v>
       </c>
@@ -7404,11 +7579,14 @@
       <c r="S32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>151</v>
       </c>
@@ -7445,11 +7623,14 @@
       <c r="S33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="U33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>152</v>
       </c>
@@ -7486,50 +7667,53 @@
       <c r="S34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="U34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
     </row>
-    <row r="45" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
     </row>
-    <row r="46" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -8108,113 +8292,133 @@
     <row r="240" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11"/>
     </row>
-    <row r="241" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="11"/>
     </row>
-    <row r="242" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="11"/>
     </row>
-    <row r="243" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11"/>
     </row>
-    <row r="244" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="11"/>
     </row>
-    <row r="245" spans="1:19" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="11"/>
     </row>
-    <row r="246" spans="1:19" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="11"/>
     </row>
-    <row r="247" spans="1:19" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="11"/>
     </row>
-    <row r="248" spans="1:19" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="11"/>
     </row>
-    <row r="249" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="11"/>
       <c r="S249" s="14"/>
-    </row>
-    <row r="250" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T249" s="14"/>
+    </row>
+    <row r="250" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="11"/>
       <c r="S250" s="7"/>
-    </row>
-    <row r="251" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T250" s="7"/>
+    </row>
+    <row r="251" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="11"/>
       <c r="S251" s="7"/>
-    </row>
-    <row r="252" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T251" s="7"/>
+    </row>
+    <row r="252" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="11"/>
       <c r="S252" s="7"/>
-    </row>
-    <row r="253" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T252" s="7"/>
+    </row>
+    <row r="253" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="11"/>
       <c r="S253" s="7"/>
-    </row>
-    <row r="254" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T253" s="7"/>
+    </row>
+    <row r="254" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11"/>
       <c r="S254" s="7"/>
-    </row>
-    <row r="255" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T254" s="7"/>
+    </row>
+    <row r="255" spans="1:20" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="11"/>
       <c r="S255" s="7"/>
-    </row>
-    <row r="256" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T255" s="7"/>
+    </row>
+    <row r="256" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="11"/>
       <c r="S256" s="7"/>
-    </row>
-    <row r="257" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T256" s="7"/>
+    </row>
+    <row r="257" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="11"/>
       <c r="S257" s="7"/>
-    </row>
-    <row r="258" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T257" s="7"/>
+    </row>
+    <row r="258" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="11"/>
       <c r="S258" s="7"/>
-    </row>
-    <row r="259" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T258" s="7"/>
+    </row>
+    <row r="259" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="11"/>
       <c r="S259" s="7"/>
-    </row>
-    <row r="260" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T259" s="7"/>
+    </row>
+    <row r="260" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="11"/>
       <c r="S260" s="7"/>
-    </row>
-    <row r="261" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T260" s="7"/>
+    </row>
+    <row r="261" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="11"/>
       <c r="S261" s="7"/>
-    </row>
-    <row r="262" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T261" s="7"/>
+    </row>
+    <row r="262" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="11"/>
       <c r="S262" s="7"/>
-    </row>
-    <row r="263" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T262" s="7"/>
+    </row>
+    <row r="263" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="11"/>
       <c r="S263" s="7"/>
-    </row>
-    <row r="264" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T263" s="7"/>
+    </row>
+    <row r="264" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="11"/>
       <c r="S264" s="7"/>
-    </row>
-    <row r="265" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T264" s="7"/>
+    </row>
+    <row r="265" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="11"/>
       <c r="S265" s="7"/>
-    </row>
-    <row r="266" spans="1:19" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T265" s="7"/>
+    </row>
+    <row r="266" spans="1:20" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="11"/>
       <c r="C266" s="13"/>
       <c r="S266" s="13"/>
-    </row>
-    <row r="267" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T266" s="13"/>
+    </row>
+    <row r="267" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="11"/>
       <c r="S267" s="7"/>
-    </row>
-    <row r="268" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T267" s="7"/>
+    </row>
+    <row r="268" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="11"/>
       <c r="S268" s="7"/>
+      <c r="T268" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T268" xr:uid="{0015523A-5FCB-4CD3-9321-5094A3B5F6B9}"/>
+  <autoFilter ref="A1:U268" xr:uid="{0015523A-5FCB-4CD3-9321-5094A3B5F6B9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
